--- a/Endurance/test_results/D1_results.xlsx
+++ b/Endurance/test_results/D1_results.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B3:O501"/>
+  <dimension ref="A1:O502"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -421,6 +421,44 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
+    <row r="1"/>
+    <row r="2">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>initial IV</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2k IV</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6k IV</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>14k IV</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>30k IV</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>62k IV</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>126k IV</t>
+        </is>
+      </c>
+    </row>
     <row r="3">
       <c r="B3" t="inlineStr">
         <is>
@@ -36349,6 +36387,7 @@
         </is>
       </c>
     </row>
+    <row r="502"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
